--- a/bots/crawl_ch/output/bread_coop_2023-03-04.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-03-04.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -2790,7 +2790,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -3792,7 +3792,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -4153,7 +4153,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -4368,7 +4368,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -4441,28 +4441,28 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>4252078</t>
+          <t>6638080</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Frischback Butter-Gipfeli Mini</t>
+          <t>Prix Garantie Milchbrötli 12 Stück</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/frischback-butter-gipfeli-mini/p/4252078</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-milchbroetli-12-stueck/p/6638080</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="E57" t="n">
         <v>4.5</v>
@@ -4474,12 +4474,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>1.60/100g</t>
+          <t>0.50/100g</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4499,39 +4499,39 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Frischback Butter-Gipfeli Mini 3.20 Schweizer Franken</t>
+          <t>Prix Garantie Milchbrötli 12 Stück 2.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6638080</t>
+          <t>4252078</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Prix Garantie Milchbrötli 12 Stück</t>
+          <t>Frischback Butter-Gipfeli Mini</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-milchbroetli-12-stueck/p/6638080</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/frischback-butter-gipfeli-mini/p/4252078</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E58" t="n">
         <v>4.5</v>
@@ -4543,12 +4543,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.50/100g</t>
+          <t>1.60/100g</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4558,7 +4558,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4568,18 +4568,18 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Prix Garantie Milchbrötli 12 Stück 2.40 Schweizer Franken</t>
+          <t>Frischback Butter-Gipfeli Mini 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -4652,7 +4652,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -4794,7 +4794,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -4936,7 +4936,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -5443,7 +5443,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5512,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5581,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -5800,7 +5800,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -6015,7 +6015,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -6088,7 +6088,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -6157,7 +6157,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -6226,7 +6226,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -6295,7 +6295,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -6368,7 +6368,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -6510,7 +6510,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -6656,7 +6656,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -6798,7 +6798,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -6940,7 +6940,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -7082,7 +7082,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -7147,7 +7147,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -7220,7 +7220,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -7435,7 +7435,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -7577,7 +7577,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -7646,7 +7646,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -7719,45 +7719,45 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>4043546</t>
+          <t>3410120</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Zwieback Vollkorn</t>
+          <t>Krisprolls Vollkorn-Schwedenbrötchen Nature ohne Zuckerzusatz</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/naturaplan-bio-zwieback-vollkorn/p/4043546</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/krisprolls-vollkorn-schwedenbroetchen-nature-ohne-zuckerzusatz/p/3410120</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E103" t="n">
         <v>4.5</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Krisprolls</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>1.78/100g</t>
+          <t>1.31/100g</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7767,7 +7767,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -7777,42 +7777,46 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Zwieback Vollkorn 4.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr"/>
+          <t>Krisprolls Vollkorn-Schwedenbrötchen Nature ohne Zuckerzusatz 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>6529967</t>
+          <t>4043546</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Reiswaffeln Fair Trade Milchschokolade</t>
+          <t>Naturaplan Bio Zwieback Vollkorn</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/reiswaffeln-fair-trade-milchschokolade/p/6529967</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/naturaplan-bio-zwieback-vollkorn/p/4043546</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E104" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -7821,12 +7825,12 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>1.45/100g</t>
+          <t>1.78/100g</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7836,7 +7840,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -7846,60 +7850,56 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>Reiswaffeln Fair Trade Milchschokolade 1.45 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>['vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Zwieback Vollkorn 4.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>3410120</t>
+          <t>6529967</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Krisprolls Vollkorn-Schwedenbrötchen Nature ohne Zuckerzusatz</t>
+          <t>Reiswaffeln Fair Trade Milchschokolade</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/krisprolls-vollkorn-schwedenbroetchen-nature-ohne-zuckerzusatz/p/3410120</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/reiswaffeln-fair-trade-milchschokolade/p/6529967</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E105" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Krisprolls</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>1.31/100g</t>
+          <t>1.45/100g</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7909,7 +7909,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -7919,22 +7919,22 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Krisprolls Vollkorn-Schwedenbrötchen Nature ohne Zuckerzusatz 2.95 Schweizer Franken</t>
+          <t>Reiswaffeln Fair Trade Milchschokolade 1.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+          <t>['vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -8080,7 +8080,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -8153,7 +8153,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -8226,7 +8226,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -8295,7 +8295,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -8368,7 +8368,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -8437,7 +8437,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -8510,7 +8510,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -8579,7 +8579,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -8652,7 +8652,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -8721,7 +8721,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -8790,7 +8790,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -8863,7 +8863,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -8936,7 +8936,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -9009,7 +9009,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -9078,7 +9078,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -9220,7 +9220,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -9289,45 +9289,45 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>5625096</t>
+          <t>3725523</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>JaMaDu Cracker Apfel Dinkel 4x38.3g</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/jamadu-cracker-apfel-dinkel-4x383g/p/5625096</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-rund-ausgewallt-32cm/p/3725523</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E125" t="n">
         <v>4.5</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2.09/100g</t>
+          <t>1.35/100g</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -9347,39 +9347,43 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>JaMaDu Cracker Apfel Dinkel 4x38.3g 3.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N125" t="inlineStr"/>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm 3.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>3041028</t>
+          <t>5625096</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Madeleines Nature</t>
+          <t>JaMaDu Cracker Apfel Dinkel 4x38.3g</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/madeleines-nature/p/3041028</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/jamadu-cracker-apfel-dinkel-4x383g/p/5625096</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E126" t="n">
         <v>4.5</v>
@@ -9391,12 +9395,12 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>1.27/100g</t>
+          <t>2.09/100g</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9406,7 +9410,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -9416,35 +9420,35 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>Madeleines Nature 2.80 Schweizer Franken</t>
+          <t>JaMaDu Cracker Apfel Dinkel 4x38.3g 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>3725523</t>
+          <t>3041028</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm</t>
+          <t>Madeleines Nature</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-rund-ausgewallt-32cm/p/3725523</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/madeleines-nature/p/3041028</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -9455,17 +9459,17 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>1.35/100g</t>
+          <t>1.27/100g</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9475,7 +9479,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -9485,22 +9489,18 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm 3.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Madeleines Nature 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -9569,45 +9569,45 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>4886674</t>
+          <t>3040362</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Ur-Dinkel</t>
+          <t>Finn Crisp 200G</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-cracker-ur-dinkel/p/4886674</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/finn-crisp-200g/p/3040362</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="E129" t="n">
         <v>5</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Finn Crisp</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>1.30/100g</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -9617,7 +9617,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -9627,56 +9627,56 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Ur-Dinkel 40% ab 4 Aktion 3.95 Schweizer Franken</t>
+          <t>Finn Crisp 200G 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>3040362</t>
+          <t>4886674</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Finn Crisp 200G</t>
+          <t>Dar-Vida Cracker Ur-Dinkel</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/finn-crisp-200g/p/3040362</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-cracker-ur-dinkel/p/4886674</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="E130" t="n">
         <v>5</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Finn Crisp</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>1.30/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9686,7 +9686,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -9696,18 +9696,18 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>Finn Crisp 200G 2.60 Schweizer Franken</t>
+          <t>Dar-Vida Cracker Ur-Dinkel 40% ab 4 Aktion 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -9776,7 +9776,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -9845,7 +9845,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -9914,7 +9914,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -9987,7 +9987,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -10060,45 +10060,45 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>6550814</t>
+          <t>5688324</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Dar-Vida Break Choco &amp;amp; Cacaonibs</t>
+          <t>Wasa Knäckebrot Sesam</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-break-choco-cacaonibs/p/6550814</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-sesam/p/5688324</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E136" t="n">
         <v>5</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>WASA</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2.35/100g</t>
+          <t>1.15/100g</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10108,7 +10108,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -10118,56 +10118,56 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>Dar-Vida Break Choco &amp;amp; Cacaonibs 40% ab 4 Aktion 3.10 Schweizer Franken</t>
+          <t>Wasa Knäckebrot Sesam 2.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>5688324</t>
+          <t>6550814</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot Sesam</t>
+          <t>Dar-Vida Break Choco &amp;amp; Cacaonibs</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-sesam/p/5688324</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-break-choco-cacaonibs/p/6550814</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E137" t="n">
         <v>5</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>WASA</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>1.15/100g</t>
+          <t>2.35/100g</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -10177,7 +10177,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -10187,18 +10187,18 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot Sesam 2.30 Schweizer Franken</t>
+          <t>Dar-Vida Break Choco &amp;amp; Cacaonibs 40% ab 4 Aktion 3.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -10267,7 +10267,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -10336,7 +10336,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -10409,7 +10409,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -10482,28 +10482,28 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>4035524</t>
+          <t>6820609</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Parisette</t>
+          <t>Bio Frischback Dinkel Vollkornbrötli</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/parisette/p/4035524</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/bio-frischback-dinkel-vollkornbroetli/p/6820609</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -10515,12 +10515,12 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>0.95/100g</t>
+          <t>1.23/100g</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -10530,7 +10530,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -10540,43 +10540,43 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>Parisette 0.95 Schweizer Franken</t>
+          <t>Bio Frischback Dinkel Vollkornbrötli 3.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>6820609</t>
+          <t>4035524</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Bio Frischback Dinkel Vollkornbrötli</t>
+          <t>Parisette</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/bio-frischback-dinkel-vollkornbroetli/p/6820609</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/parisette/p/4035524</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -10588,12 +10588,12 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>1.23/100g</t>
+          <t>0.95/100g</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -10613,22 +10613,22 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>Bio Frischback Dinkel Vollkornbrötli 3.70 Schweizer Franken</t>
+          <t>Parisette 0.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -10697,7 +10697,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -10766,7 +10766,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -10839,7 +10839,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -10908,45 +10908,45 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>4888081</t>
+          <t>6104289</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Appenzeller Bärli-Biber 6x43g</t>
+          <t>Pasquier Milchbrötchen Schoko 8 Stück</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/appenzeller-baerli-biber-6x43g/p/4888081</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-milchbroetchen-schoko-8-stueck/p/6104289</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E148" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Zweifel</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2.02/100g</t>
+          <t>1.14/100g</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -10966,60 +10966,56 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>Appenzeller Bärli-Biber 6x43g 5.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N148" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>Pasquier Milchbrötchen Schoko 8 Stück 3.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>4004924</t>
+          <t>4888081</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Maiswaffeln Quinoa &amp;amp; Amaranth</t>
+          <t>Appenzeller Bärli-Biber 6x43g</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/maiswaffeln-quinoa-amaranth/p/4004924</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/appenzeller-baerli-biber-6x43g/p/4888081</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E149" t="n">
         <v>5</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Zweifel</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>1.92/100g</t>
+          <t>2.02/100g</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -11029,7 +11025,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -11039,60 +11035,60 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>Maiswaffeln Quinoa &amp;amp; Amaranth 2.50 Schweizer Franken</t>
+          <t>Appenzeller Bärli-Biber 6x43g 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegetarian']</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>6104289</t>
+          <t>4004924</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Pasquier Milchbrötchen Schoko 8 Stück</t>
+          <t>Maiswaffeln Quinoa &amp;amp; Amaranth</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-milchbroetchen-schoko-8-stueck/p/6104289</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/maiswaffeln-quinoa-amaranth/p/4004924</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E150" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>1.14/100g</t>
+          <t>1.92/100g</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -11102,7 +11098,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -11112,18 +11108,22 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>Pasquier Milchbrötchen Schoko 8 Stück 3.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N150" t="inlineStr"/>
+          <t>Maiswaffeln Quinoa &amp;amp; Amaranth 2.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11196,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -11265,7 +11265,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -11338,7 +11338,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -11407,7 +11407,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -11476,7 +11476,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -11618,7 +11618,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -11687,7 +11687,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -11760,7 +11760,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -11829,7 +11829,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -11902,7 +11902,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -11975,7 +11975,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -12048,7 +12048,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -12190,7 +12190,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -12259,7 +12259,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -12332,7 +12332,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -12405,7 +12405,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -12478,7 +12478,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -12551,7 +12551,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -12620,7 +12620,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -12689,7 +12689,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -12758,7 +12758,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -12827,7 +12827,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -12900,7 +12900,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -12969,7 +12969,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -13038,45 +13038,45 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>5732887</t>
+          <t>3023036</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Schär Meisterbäcker Brot Vitalbrot glutenfrei</t>
+          <t>Old El Paso Taco-Schalen 12 Stück</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-meisterbaecker-brot-vitalbrot-glutenfrei/p/5732887</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-taco-schalen-12-stueck/p/3023036</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E178" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>2.50/100g</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -13086,7 +13086,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -13096,60 +13096,56 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>Schär Meisterbäcker Brot Vitalbrot glutenfrei 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N178" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Old El Paso Taco-Schalen 12 Stück 3.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>3023036</t>
+          <t>5732887</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Old El Paso Taco-Schalen 12 Stück</t>
+          <t>Schär Meisterbäcker Brot Vitalbrot glutenfrei</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-taco-schalen-12-stueck/p/3023036</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-meisterbaecker-brot-vitalbrot-glutenfrei/p/5732887</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E179" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>2.50/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -13159,7 +13155,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -13169,18 +13165,22 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>Old El Paso Taco-Schalen 12 Stück 3.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N179" t="inlineStr"/>
+          <t>Schär Meisterbäcker Brot Vitalbrot glutenfrei 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -13249,7 +13249,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -13318,7 +13318,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -13391,7 +13391,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -13460,7 +13460,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -13529,7 +13529,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -13602,7 +13602,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -13675,7 +13675,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -13748,7 +13748,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -13817,7 +13817,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -13886,7 +13886,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -13955,7 +13955,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -14028,7 +14028,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -14097,45 +14097,45 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>4338613</t>
+          <t>4950628</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>JaMaDu Fairtrade Reiswaffeln mit Honig</t>
+          <t>Dar-Vida Sandwich Schokolade &amp;amp; Haselnusscrème</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/jamadu-fairtrade-reiswaffeln-mit-honig/p/4338613</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-sandwich-schokolade-haselnusscreme/p/4950628</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E193" t="n">
         <v>4.5</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>3.25/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -14145,7 +14145,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -14155,60 +14155,60 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>JaMaDu Fairtrade Reiswaffeln mit Honig 1.95 Schweizer Franken</t>
+          <t>Dar-Vida Sandwich Schokolade &amp;amp; Haselnusscrème 40% ab 4 Aktion 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>3041836</t>
+          <t>4338613</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Délicatesse Roggen</t>
+          <t>JaMaDu Fairtrade Reiswaffeln mit Honig</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-delicatesse-roggen/p/3041836</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/jamadu-fairtrade-reiswaffeln-mit-honig/p/4338613</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E194" t="n">
         <v>4.5</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>1.33/100g</t>
+          <t>3.25/100g</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -14218,7 +14218,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -14228,60 +14228,60 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Délicatesse Roggen 2.65 Schweizer Franken</t>
+          <t>JaMaDu Fairtrade Reiswaffeln mit Honig 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>4950628</t>
+          <t>3041836</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Dar-Vida Sandwich Schokolade &amp;amp; Haselnusscrème</t>
+          <t>Roland Knäckebrot Délicatesse Roggen</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-sandwich-schokolade-haselnusscreme/p/4950628</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-delicatesse-roggen/p/3041836</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E195" t="n">
         <v>4.5</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>1.33/100g</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -14291,7 +14291,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -14301,12 +14301,12 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>Dar-Vida Sandwich Schokolade &amp;amp; Haselnusscrème 40% ab 4 Aktion 5.20 Schweizer Franken</t>
+          <t>Roland Knäckebrot Délicatesse Roggen 2.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="N195" t="inlineStr">
@@ -14316,7 +14316,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -14389,7 +14389,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -14458,45 +14458,45 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>3410121</t>
+          <t>4750751</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Kirsprolls Vollkorn-Schwedenbrötchen</t>
+          <t>Roland Knäckebrot Hafer</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/kirsprolls-vollkorn-schwedenbroetchen/p/3410121</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-hafer/p/4750751</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E198" t="n">
         <v>5</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Krisprolls</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>1.31/100g</t>
+          <t>1.72/100g</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -14506,7 +14506,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -14521,41 +14521,41 @@
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>Kirsprolls Vollkorn-Schwedenbrötchen 2.95 Schweizer Franken</t>
+          <t>Roland Knäckebrot Hafer 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>3690878</t>
+          <t>6617154</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse</t>
+          <t>Prix Garantie Roggen Knäckebrot</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/fine-food-knaeckebrot-mit-kuerbiskernen-kaese/p/3690878</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/prix-garantie-roggen-knaeckebrot/p/6617154</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E199" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>0.38/100g</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -14579,7 +14579,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -14594,51 +14594,55 @@
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N199" t="inlineStr"/>
+          <t>Prix Garantie Roggen Knäckebrot 0.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>6617154</t>
+          <t>3410121</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Prix Garantie Roggen Knäckebrot</t>
+          <t>Kirsprolls Vollkorn-Schwedenbrötchen</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/prix-garantie-roggen-knaeckebrot/p/6617154</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/kirsprolls-vollkorn-schwedenbroetchen/p/3410121</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E200" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Krisprolls</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>0.38/100g</t>
+          <t>1.31/100g</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -14648,7 +14652,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -14663,45 +14667,45 @@
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>Prix Garantie Roggen Knäckebrot 0.95 Schweizer Franken</t>
+          <t>Kirsprolls Vollkorn-Schwedenbrötchen 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>4750751</t>
+          <t>3690878</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Hafer</t>
+          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-hafer/p/4750751</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/fine-food-knaeckebrot-mit-kuerbiskernen-kaese/p/3690878</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E201" t="n">
         <v>5</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -14711,7 +14715,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>1.72/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -14721,7 +14725,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -14736,17 +14740,13 @@
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Hafer 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N201" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -14819,7 +14819,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -14888,45 +14888,45 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>6825791</t>
+          <t>3658651</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Prix Garantie Proteinbrot</t>
+          <t>Mulino Bianco Weizen-Brot</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/prix-garantie-proteinbrot/p/6825791</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/mulino-bianco-weizen-brot/p/3658651</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E204" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Mulino Bianco</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>0.92/100g</t>
+          <t>0.66/100g</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -14936,7 +14936,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -14951,55 +14951,51 @@
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>Prix Garantie Proteinbrot 2.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N204" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Mulino Bianco Weizen-Brot 2.65 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>6036925</t>
+          <t>6825791</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig 5-Korn Rund Ausgewallt Ø24cm</t>
+          <t>Prix Garantie Proteinbrot</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-5-korn-rund-ausgewallt-24cm/p/6036925</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/prix-garantie-proteinbrot/p/6825791</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E205" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>1.61/100g</t>
+          <t>0.92/100g</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -15009,7 +15005,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -15019,22 +15015,22 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig 5-Korn Rund Ausgewallt Ø24cm 4.50 Schweizer Franken</t>
+          <t>Prix Garantie Proteinbrot 2.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -15107,45 +15103,45 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>3658651</t>
+          <t>6036925</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Mulino Bianco Weizen-Brot</t>
+          <t>Buitoni Pizzateig 5-Korn Rund Ausgewallt Ø24cm</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/mulino-bianco-weizen-brot/p/3658651</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-5-korn-rund-ausgewallt-24cm/p/6036925</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E207" t="n">
         <v>5</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Mulino Bianco</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>0.66/100g</t>
+          <t>1.61/100g</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -15155,7 +15151,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -15165,18 +15161,22 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>Mulino Bianco Weizen-Brot 2.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N207" t="inlineStr"/>
+          <t>Buitoni Pizzateig 5-Korn Rund Ausgewallt Ø24cm 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -15245,7 +15245,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -15314,7 +15314,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -15387,145 +15387,145 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>6358647</t>
+          <t>4314837</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Roland Naturaplan Bio Dinkelzwieback</t>
+          <t>Kale Dürüm 30cm 18 Stück</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/roland-naturaplan-bio-dinkelzwieback/p/6358647</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/kale-dueruem-30cm-18-stueck/p/4314837</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E211" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Kale</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>4.39/1kg</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>Roland Naturaplan Bio Dinkelzwieback 4.40 Schweizer Franken</t>
+          <t>Kale Dürüm 30cm 18 Stück 7.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>4314837</t>
+          <t>6358647</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Kale Dürüm 30cm 18 Stück</t>
+          <t>Roland Naturaplan Bio Dinkelzwieback</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/kale-dueruem-30cm-18-stueck/p/4314837</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/roland-naturaplan-bio-dinkelzwieback/p/6358647</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E212" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Kale</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>4.39/1kg</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>Kale Dürüm 30cm 18 Stück 7.50 Schweizer Franken</t>
+          <t>Roland Naturaplan Bio Dinkelzwieback 4.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -15594,7 +15594,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -15663,7 +15663,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -15736,7 +15736,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -15809,7 +15809,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -15882,7 +15882,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -15955,7 +15955,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -16024,7 +16024,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -16093,7 +16093,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -16162,45 +16162,45 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>6117087</t>
+          <t>3431131</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla glutenfrei 6 Stück</t>
+          <t>Betty Bossi Spitzbube 2x  80g</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-glutenfrei-6-stueck/p/6117087</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-spitzbube/p/3431131</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E222" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>2.75/100g</t>
+          <t>2.88/100g</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -16210,7 +16210,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -16220,60 +16220,56 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla glutenfrei 6 Stück 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N222" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Betty Bossi Spitzbube 2x  80g 4.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>3431131</t>
+          <t>6117087</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Betty Bossi Spitzbube 2x  80g</t>
+          <t>Old El Paso Tortilla glutenfrei 6 Stück</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-spitzbube/p/3431131</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-glutenfrei-6-stueck/p/6117087</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E223" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>2.88/100g</t>
+          <t>2.75/100g</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -16283,7 +16279,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -16293,18 +16289,22 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>Betty Bossi Spitzbube 2x  80g 4.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N223" t="inlineStr"/>
+          <t>Old El Paso Tortilla glutenfrei 6 Stück 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -16373,7 +16373,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -16446,7 +16446,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -16515,7 +16515,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -16584,45 +16584,45 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>3726500</t>
+          <t>6338742</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 8St</t>
+          <t>Country Cracker Nature Stange</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-8st/p/3726500</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature-stange/p/6338742</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E228" t="n">
         <v>4.5</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>1.28/100g</t>
+          <t>1.16/100g</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -16632,7 +16632,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -16642,56 +16642,56 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 8St 4.60 Schweizer Franken</t>
+          <t>Country Cracker Nature Stange 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>6338742</t>
+          <t>3726500</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Country Cracker Nature Stange</t>
+          <t>Pasquier Schokobrötchen 8St</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature-stange/p/6338742</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-8st/p/3726500</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E229" t="n">
         <v>4.5</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>1.16/100g</t>
+          <t>1.28/100g</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -16701,7 +16701,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -16711,18 +16711,18 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>Country Cracker Nature Stange 3.30 Schweizer Franken</t>
+          <t>Pasquier Schokobrötchen 8St 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -16791,7 +16791,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -16860,45 +16860,45 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>3504615</t>
+          <t>6364156</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Betty Bossi Pastateig 2x16x56cm</t>
+          <t>Pasquier Pains facon Bretzel</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pastateig-2x16x56cm/p/3504615</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/pasquier-pains-facon-bretzel/p/6364156</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E232" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>1.56/100g</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -16908,7 +16908,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -16918,56 +16918,56 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote']</t>
         </is>
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>Betty Bossi Pastateig 2x16x56cm 2.80 Schweizer Franken</t>
+          <t>Pasquier Pains facon Bretzel 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>4859018</t>
+          <t>3504615</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Dar-Vida Sandwich Tomate &amp;amp; Basilicum</t>
+          <t>Betty Bossi Pastateig 2x16x56cm</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-sandwich-tomate-basilicum/p/4859018</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pastateig-2x16x56cm/p/3504615</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E233" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -16977,7 +16977,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -16987,56 +16987,56 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>Dar-Vida Sandwich Tomate &amp;amp; Basilicum 40% ab 4 Aktion 5.20 Schweizer Franken</t>
+          <t>Betty Bossi Pastateig 2x16x56cm 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>6364156</t>
+          <t>4859018</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Pasquier Pains facon Bretzel</t>
+          <t>Dar-Vida Sandwich Tomate &amp;amp; Basilicum</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/pasquier-pains-facon-bretzel/p/6364156</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-sandwich-tomate-basilicum/p/4859018</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E234" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>1.56/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -17046,7 +17046,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -17056,18 +17056,18 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>Pasquier Pains facon Bretzel 4.20 Schweizer Franken</t>
+          <t>Dar-Vida Sandwich Tomate &amp;amp; Basilicum 40% ab 4 Aktion 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -17140,7 +17140,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -17213,7 +17213,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -17286,7 +17286,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -17355,7 +17355,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -17428,7 +17428,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -17501,7 +17501,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -17570,45 +17570,45 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>5722126</t>
+          <t>6750015</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
+          <t>Schär Pain Brioché</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-pain-brioche/p/6750015</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E242" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17618,7 +17618,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -17628,60 +17628,60 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei 4.95 Schweizer Franken</t>
+          <t>Schär Pain Brioché 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>6750015</t>
+          <t>5722126</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Schär Pain Brioché</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-pain-brioche/p/6750015</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E243" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -17691,7 +17691,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -17701,22 +17701,22 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>Schär Pain Brioché 5.20 Schweizer Franken</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -17789,7 +17789,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -17862,7 +17862,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -17935,7 +17935,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -18006,45 +18006,45 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>4793918</t>
+          <t>6601630</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>St Michel Madeleines 10 Stück</t>
+          <t>Roland Petite Pause Family Schokolade</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines-10-stueck/p/4793918</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-family-schokolade/p/6601630</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E248" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18054,7 +18054,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -18064,56 +18064,56 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
         </is>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>St Michel Madeleines 10 Stück 2.80 Schweizer Franken</t>
+          <t>Roland Petite Pause Family Schokolade 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>6345662</t>
+          <t>4793918</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Indian Delight Mini Naans bread nature</t>
+          <t>St Michel Madeleines 10 Stück</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/indian-delight-mini-naans-bread-nature/p/6345662</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines-10-stueck/p/4793918</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E249" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>1.85/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18123,7 +18123,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -18133,22 +18133,18 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>Indian Delight Mini Naans bread nature 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N249" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>St Michel Madeleines 10 Stück 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -18221,7 +18217,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -18282,51 +18278,51 @@
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>Schenkeli 7x30g 2.60 Schweizer Franken</t>
+          <t>Schenkeli 7x30g - Online kein Bestand 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>5747253</t>
+          <t>6345662</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Pasquier Pitch Choco Barre Lait</t>
+          <t>Indian Delight Mini Naans bread nature</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pitch-choco-barre-lait/p/5747253</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/indian-delight-mini-naans-bread-nature/p/6345662</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E252" t="n">
         <v>3</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>1.73/100g</t>
+          <t>1.85/100g</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -18336,7 +18332,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -18346,56 +18342,60 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>Pasquier Pitch Choco Barre Lait 5.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N252" t="inlineStr"/>
+          <t>Indian Delight Mini Naans bread nature 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>3041946</t>
+          <t>5747253</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Exquis Sesam</t>
+          <t>Pasquier Pitch Choco Barre Lait</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-exquis-sesam/p/3041946</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pitch-choco-barre-lait/p/5747253</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>1.33/100g</t>
+          <t>1.73/100g</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -18405,7 +18405,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -18415,60 +18415,56 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Exquis Sesam 2.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N253" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Pasquier Pitch Choco Barre Lait 5.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>6601630</t>
+          <t>3958888</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Family Schokolade</t>
+          <t>Prix Garantie Madeleines 17 Stück</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-family-schokolade/p/6601630</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-17-stueck/p/3958888</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E254" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18478,7 +18474,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -18488,56 +18484,56 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Family Schokolade 5.95 Schweizer Franken</t>
+          <t>Prix Garantie Madeleines 17 Stück 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>3958888</t>
+          <t>3041946</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines 17 Stück</t>
+          <t>Roland Knäckebrot Exquis Sesam</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-17-stueck/p/3958888</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-exquis-sesam/p/3041946</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E255" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>1.33/100g</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -18547,7 +18543,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -18557,18 +18553,22 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines 17 Stück 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N255" t="inlineStr"/>
+          <t>Roland Knäckebrot Exquis Sesam 2.65 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -18641,7 +18641,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -18710,7 +18710,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -18779,7 +18779,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -18848,45 +18848,45 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>6080763</t>
+          <t>6723241</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa</t>
+          <t>Old el Paso Tortilla XL Glutenfree 4 Stück</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/naturaplan-bio-cracker-rosmarin-quinoa/p/6080763</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-xl-glutenfree-4-stueck/p/6723241</t>
         </is>
       </c>
       <c r="D260" t="n">
+        <v>3</v>
+      </c>
+      <c r="E260" t="n">
         <v>4</v>
       </c>
-      <c r="E260" t="n">
-        <v>5</v>
-      </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>1.59/100g</t>
+          <t>3.02/100g</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -18896,7 +18896,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -18906,56 +18906,60 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N260" t="inlineStr"/>
+          <t>Old el Paso Tortilla XL Glutenfree 4 Stück 6.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>['vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>6723241</t>
+          <t>6080763</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Old el Paso Tortilla XL Glutenfree 4 Stück</t>
+          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-xl-glutenfree-4-stueck/p/6723241</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/naturaplan-bio-cracker-rosmarin-quinoa/p/6080763</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E261" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>3.02/100g</t>
+          <t>1.59/100g</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -18965,7 +18969,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -18975,22 +18979,18 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>Old el Paso Tortilla XL Glutenfree 4 Stück 6.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N261" t="inlineStr">
-        <is>
-          <t>['vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -19063,7 +19063,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -19136,45 +19136,45 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>6350020</t>
+          <t>3909255</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat</t>
+          <t>Schär Knusperbrot glutenfrei</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-glutenfrei/p/3909255</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E264" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>1.80/100g</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -19184,7 +19184,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -19194,60 +19194,60 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
+          <t>Schär Knusperbrot glutenfrei 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>3909255</t>
+          <t>6350020</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot glutenfrei</t>
+          <t>Karma Mini Cracker Sesam Leinsaat</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-glutenfrei/p/3909255</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E265" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>1.80/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -19257,7 +19257,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -19267,22 +19267,22 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot glutenfrei 2.70 Schweizer Franken</t>
+          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>['gluten_free', 'lactose_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -19351,45 +19351,45 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>5989712</t>
+          <t>6528382</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot glutenfrei</t>
+          <t>Prix Garantie Madeleines Marmorizzate</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-glutenfrei/p/5989712</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-marmorizzate/p/6528382</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E267" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>WASA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19399,7 +19399,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -19409,56 +19409,56 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot glutenfrei 4.50 Schweizer Franken</t>
+          <t>Prix Garantie Madeleines Marmorizzate 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>6528382</t>
+          <t>5989712</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines Marmorizzate</t>
+          <t>Wasa Knäckebrot glutenfrei</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-marmorizzate/p/6528382</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-glutenfrei/p/5989712</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E268" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>WASA</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19468,7 +19468,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -19478,18 +19478,18 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines Marmorizzate 2.80 Schweizer Franken</t>
+          <t>Wasa Knäckebrot glutenfrei 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -19562,7 +19562,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -19629,7 +19629,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -19696,28 +19696,28 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>6390812</t>
+          <t>3584790</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Prix Garantie Pudding Küchlein 6x200g</t>
+          <t>Fine Food Engadiner Birnbrot</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-pudding-kuechlein-6x200g/p/6390812</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/fine-food-engadiner-birnbrot/p/3584790</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E272" t="n">
         <v>3.5</v>
@@ -19729,12 +19729,12 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>1.33/100g</t>
+          <t>2.31/100g</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -19744,7 +19744,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -19754,56 +19754,56 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>Prix Garantie Pudding Küchlein 6x200g 2.65 Schweizer Franken</t>
+          <t>Fine Food Engadiner Birnbrot 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>3584790</t>
+          <t>7028476</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Fine Food Engadiner Birnbrot</t>
+          <t>Le Pain des fleurs Bio Kastanie</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/fine-food-engadiner-birnbrot/p/3584790</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E273" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>2.31/100g</t>
+          <t>3.30/100g</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -19813,7 +19813,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -19823,56 +19823,60 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>Fine Food Engadiner Birnbrot 9.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N273" t="inlineStr"/>
+          <t>Le Pain des fleurs Bio Kastanie 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>7028476</t>
+          <t>6390812</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie</t>
+          <t>Prix Garantie Pudding Küchlein 6x200g</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-pudding-kuechlein-6x200g/p/6390812</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E274" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>3.30/100g</t>
+          <t>1.33/100g</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -19882,7 +19886,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -19892,22 +19896,18 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N274" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Pudding Küchlein 6x200g 2.65 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -19976,31 +19976,31 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>4265298</t>
+          <t>6338746</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mini Haselnussrollen</t>
+          <t>Country Cracker Sesam Stange</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-mini-haselnussrollen/p/4265298</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam-stange/p/6338746</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E276" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -20009,12 +20009,12 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>1.50/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -20024,7 +20024,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -20034,42 +20034,42 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mini Haselnussrollen 3.60 Schweizer Franken</t>
+          <t>Country Cracker Sesam Stange 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>6338746</t>
+          <t>4265298</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam Stange</t>
+          <t>Naturaplan Bio Mini Haselnussrollen</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam-stange/p/6338746</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-mini-haselnussrollen/p/4265298</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E277" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -20078,12 +20078,12 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>1.50/100g</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -20093,7 +20093,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -20103,18 +20103,18 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam Stange 3.30 Schweizer Franken</t>
+          <t>Naturaplan Bio Mini Haselnussrollen 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -20181,45 +20181,45 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>6738706</t>
+          <t>7027777</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Dar-Vida extra fin Mais Taco</t>
+          <t>Le Pain des fleurs Bio Buchweizen</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-extra-fin-mais-taco/p/6738706</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-buchweizen/p/7027777</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E279" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>2.40/100g</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20229,7 +20229,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -20239,56 +20239,60 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>Dar-Vida extra fin Mais Taco 40% ab 4 Aktion 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N279" t="inlineStr"/>
+          <t>Le Pain des fleurs Bio Buchweizen 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N279" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>6564543</t>
+          <t>6738706</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Country Cracker Käse</t>
+          <t>Dar-Vida extra fin Mais Taco</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-kaese/p/6564543</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-extra-fin-mais-taco/p/6738706</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E280" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20298,7 +20302,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -20313,37 +20317,37 @@
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>Country Cracker Käse 3.60 Schweizer Franken</t>
+          <t>Dar-Vida extra fin Mais Taco 40% ab 4 Aktion 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>3454555</t>
+          <t>6564543</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Prix Garantie Gugelhopf</t>
+          <t>Country Cracker Käse</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-gugelhopf/p/3454555</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-kaese/p/6564543</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E281" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -20352,12 +20356,12 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>0.48/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20367,7 +20371,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -20377,56 +20381,56 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>Prix Garantie Gugelhopf 1.90 Schweizer Franken</t>
+          <t>Country Cracker Käse 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>6348879</t>
+          <t>3454555</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm</t>
+          <t>Prix Garantie Gugelhopf</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-mit-olivenoel-rund-ausgewallt-24cm/p/6348879</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-gugelhopf/p/3454555</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E282" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>0.48/100g</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20436,7 +20440,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -20446,60 +20450,56 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N282" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Gugelhopf 1.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>7027777</t>
+          <t>6348879</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Buchweizen</t>
+          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-buchweizen/p/7027777</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-mit-olivenoel-rund-ausgewallt-24cm/p/6348879</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E283" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>2.40/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -20509,7 +20509,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -20519,22 +20519,22 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Buchweizen 3.60 Schweizer Franken</t>
+          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -20603,7 +20603,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -20676,7 +20676,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -20747,31 +20747,31 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>6424899</t>
+          <t>6528421</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Prix Garantie Aprikosen Tartelettes</t>
+          <t>Prix Garantie Madeleines choco</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-aprikosen-tartelettes/p/6424899</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-choco/p/6528421</t>
         </is>
       </c>
       <c r="D287" t="n">
         <v>4</v>
       </c>
       <c r="E287" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -20780,12 +20780,12 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>0.77/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -20795,7 +20795,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -20810,13 +20810,13 @@
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>Prix Garantie Aprikosen Tartelettes 2.30 Schweizer Franken</t>
+          <t>Prix Garantie Madeleines choco 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -20885,31 +20885,31 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>6528421</t>
+          <t>6424899</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines choco</t>
+          <t>Prix Garantie Aprikosen Tartelettes</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-choco/p/6528421</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-aprikosen-tartelettes/p/6424899</t>
         </is>
       </c>
       <c r="D289" t="n">
         <v>4</v>
       </c>
       <c r="E289" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -20918,12 +20918,12 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>0.77/100g</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -20933,7 +20933,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -20948,51 +20948,51 @@
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines choco 2.80 Schweizer Franken</t>
+          <t>Prix Garantie Aprikosen Tartelettes 2.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>6315330</t>
+          <t>6629585</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla Bowls Seasalt</t>
+          <t>Betty Bossi Marmor Cake</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-bowls-seasalt/p/6315330</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-marmor-cake/p/6629585</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E290" t="n">
         <v>4.5</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>2.43/100g</t>
+          <t>1.91/100g</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -21002,7 +21002,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -21012,60 +21012,56 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla Bowls Seasalt 3.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N290" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Betty Bossi Marmor Cake 2.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>6629585</t>
+          <t>6315330</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Betty Bossi Marmor Cake</t>
+          <t>Old El Paso Tortilla Bowls Seasalt</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-marmor-cake/p/6629585</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-bowls-seasalt/p/6315330</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E291" t="n">
         <v>4.5</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>1.91/100g</t>
+          <t>2.43/100g</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -21075,7 +21071,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -21085,18 +21081,22 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>Betty Bossi Marmor Cake 2.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N291" t="inlineStr"/>
+          <t>Old El Paso Tortilla Bowls Seasalt 3.65 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -21165,7 +21165,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -21238,7 +21238,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -21307,7 +21307,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -21376,7 +21376,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -21445,7 +21445,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -21514,7 +21514,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -21583,45 +21583,45 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>6575244</t>
+          <t>6762461</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Old el Paso Fajita mix Gluten Free</t>
+          <t>Bischofberger Biber Vegan</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-mix-gluten-free/p/6575244</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bischofberger-biber-vegan/p/6762461</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E299" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Zweifel</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>5.33/100g</t>
+          <t>3.00/100g</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21631,7 +21631,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -21641,60 +21641,60 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M299" t="inlineStr">
         <is>
-          <t>Old el Paso Fajita mix Gluten Free 1.60 Schweizer Franken</t>
+          <t>Bischofberger Biber Vegan 1.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>6882168</t>
+          <t>6575244</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Leisi Butter-Kuchenteig</t>
+          <t>Old el Paso Fajita mix Gluten Free</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-butter-kuchenteig/p/6882168</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-mix-gluten-free/p/6575244</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E300" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>1.50/100g</t>
+          <t>5.33/100g</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21704,7 +21704,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -21714,60 +21714,60 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>Leisi Butter-Kuchenteig 4.20 Schweizer Franken</t>
+          <t>Old el Paso Fajita mix Gluten Free 1.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>6762461</t>
+          <t>6882168</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Bischofberger Biber Vegan</t>
+          <t>Leisi Butter-Kuchenteig</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bischofberger-biber-vegan/p/6762461</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-butter-kuchenteig/p/6882168</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>Zweifel</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>3.00/100g</t>
+          <t>1.50/100g</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -21777,7 +21777,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -21787,22 +21787,22 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>Bischofberger Biber Vegan 1.80 Schweizer Franken</t>
+          <t>Leisi Butter-Kuchenteig 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -21875,7 +21875,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -21944,7 +21944,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -22013,7 +22013,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -22080,24 +22080,24 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>6834497</t>
+          <t>7037702</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Quicook Blätterteig</t>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/quicook-blaetterteig/p/6834497</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
         </is>
       </c>
       <c r="D306" t="inlineStr"/>
@@ -22106,7 +22106,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>Eclair</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -22136,60 +22136,54 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>Quicook Blätterteig 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N306" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>5621833</t>
+          <t>6834497</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Mini Chococremecake</t>
+          <t>Quicook Blätterteig</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mini-chococremecake/p/5621833</t>
-        </is>
-      </c>
-      <c r="D307" t="n">
-        <v>17</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/quicook-blaetterteig/p/6834497</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr"/>
       <c r="E307" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Eclair</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>2.55/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -22199,7 +22193,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -22209,54 +22203,60 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>Mini Chococremecake 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N307" t="inlineStr"/>
+          <t>Quicook Blätterteig 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>7037702</t>
+          <t>5621833</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
+          <t>Mini Chococremecake</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mini-chococremecake/p/5621833</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>17</v>
+      </c>
       <c r="E308" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>2.55/100g</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -22266,7 +22266,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -22276,56 +22276,56 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 2.95 Schweizer Franken</t>
+          <t>Mini Chococremecake - Online kein Bestand 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>6313770</t>
+          <t>6581130</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Milch Céréales</t>
+          <t>Dona Pita Brot</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-milch-cereales/p/6313770</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/dona-pita-brot/p/6581130</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E309" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Dona</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>0.57/100g</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22335,7 +22335,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -22345,56 +22345,56 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Milch Céréales 2.80 Schweizer Franken</t>
+          <t>Dona Pita Brot 2.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>6581130</t>
+          <t>3446126</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Dona Pita Brot</t>
+          <t>Old El Paso Enchilada Kit</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/dona-pita-brot/p/6581130</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-enchilada-kit/p/3446126</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E310" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>Dona</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>0.57/100g</t>
+          <t>1.17/100g</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22404,7 +22404,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -22419,49 +22419,51 @@
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>Dona Pita Brot 2.75 Schweizer Franken</t>
+          <t>Old El Paso Enchilada Kit 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>6739419</t>
+          <t>6313770</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Betty Bossi Pfaffenhut 2x  100g</t>
+          <t>Roland Petite Pause Milch Céréales</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-pfaffenhut/p/6739419</t>
-        </is>
-      </c>
-      <c r="D311" t="inlineStr"/>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-milch-cereales/p/6313770</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>3</v>
+      </c>
       <c r="E311" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>2.30/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -22471,7 +22473,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -22481,18 +22483,18 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
         </is>
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>Betty Bossi Pfaffenhut 2x  100g 4.60 Schweizer Franken</t>
+          <t>Roland Petite Pause Milch Céréales 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -22561,45 +22563,43 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>3446126</t>
+          <t>6739419</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Old El Paso Enchilada Kit</t>
+          <t>Betty Bossi Pfaffenhut 2x  100g</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-enchilada-kit/p/3446126</t>
-        </is>
-      </c>
-      <c r="D313" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-pfaffenhut/p/6739419</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr"/>
       <c r="E313" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>1.17/100g</t>
+          <t>2.30/100g</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -22609,7 +22609,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -22619,18 +22619,18 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>Old El Paso Enchilada Kit 7.70 Schweizer Franken</t>
+          <t>Betty Bossi Pfaffenhut 2x  100g 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -22703,7 +22703,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -22776,7 +22776,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -22845,7 +22845,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -22918,7 +22918,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -22987,7 +22987,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -23060,7 +23060,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -23129,7 +23129,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -23196,7 +23196,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -23265,7 +23265,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -23338,7 +23338,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -23407,45 +23407,45 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>5824672</t>
+          <t>6967945</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Rob &amp;amp; Lissy Brownie 2x  80g</t>
+          <t>St. Michel Dooomino au chocolat</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/rob-lissy-brownie/p/5824672</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-dooomino-au-chocolat/p/6967945</t>
         </is>
       </c>
       <c r="D325" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>2.63/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23455,7 +23455,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -23470,51 +23470,51 @@
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>Rob &amp;amp; Lissy Brownie 2x  80g 4.20 Schweizer Franken</t>
+          <t>St. Michel Dooomino au chocolat 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>6967945</t>
+          <t>5824672</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>St. Michel Dooomino au chocolat</t>
+          <t>Rob &amp;amp; Lissy Brownie 2x  80g</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-dooomino-au-chocolat/p/6967945</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/rob-lissy-brownie/p/5824672</t>
         </is>
       </c>
       <c r="D326" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E326" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>2.63/100g</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23524,7 +23524,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -23539,13 +23539,13 @@
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>St. Michel Dooomino au chocolat 2.95 Schweizer Franken</t>
+          <t>Rob &amp;amp; Lissy Brownie 2x  80g 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -23614,7 +23614,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -23683,7 +23683,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -23756,7 +23756,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -23825,7 +23825,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -23892,7 +23892,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -23965,7 +23965,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -24034,7 +24034,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -24103,7 +24103,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -24176,7 +24176,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -24247,7 +24247,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -24316,7 +24316,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -24385,7 +24385,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -24454,7 +24454,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -24527,7 +24527,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -24600,7 +24600,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -24669,7 +24669,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -24738,7 +24738,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -24807,7 +24807,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -24876,45 +24876,45 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>6579811</t>
+          <t>6989654</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas</t>
+          <t>Bauckhof Brownies Backmischung</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
         </is>
       </c>
       <c r="D346" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E346" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>INES ROSALES</t>
+          <t>Bauckhof</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>2.56/100g</t>
+          <t>1.13/100g</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -24924,7 +24924,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -24939,51 +24939,55 @@
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N346" t="inlineStr"/>
+          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>6989654</t>
+          <t>6579811</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung</t>
+          <t>Ines Rosales Süsse Tortas</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
         </is>
       </c>
       <c r="D347" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E347" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Bauckhof</t>
+          <t>INES ROSALES</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>1.13/100g</t>
+          <t>2.56/100g</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -24993,7 +24997,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -25008,17 +25012,13 @@
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N347" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -25087,7 +25087,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -25154,7 +25154,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -25223,7 +25223,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -25292,7 +25292,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -25361,7 +25361,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -25432,7 +25432,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -25501,7 +25501,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -25574,7 +25574,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -25643,7 +25643,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -25712,7 +25712,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -25785,7 +25785,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -25854,7 +25854,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -25923,7 +25923,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -25992,7 +25992,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -26061,7 +26061,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -26130,7 +26130,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -26203,7 +26203,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -26276,7 +26276,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -26347,7 +26347,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -26416,7 +26416,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -26489,7 +26489,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -26556,7 +26556,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -26629,7 +26629,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -26698,7 +26698,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -26765,7 +26765,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -26832,7 +26832,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -26899,7 +26899,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -26972,7 +26972,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -27041,7 +27041,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -27110,7 +27110,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -27179,7 +27179,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -27252,7 +27252,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -27319,7 +27319,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -27388,7 +27388,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -27457,7 +27457,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -27524,7 +27524,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -27593,7 +27593,7 @@
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -27662,7 +27662,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -27729,7 +27729,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -27798,7 +27798,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -27865,7 +27865,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -27932,7 +27932,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -28005,7 +28005,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -28074,7 +28074,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
@@ -28141,7 +28141,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-03-04 12:55:44</t>
+          <t>2023-03-04 20:50:41</t>
         </is>
       </c>
     </row>
